--- a/Resource/excel/商城-商品配置.xlsx
+++ b/Resource/excel/商城-商品配置.xlsx
@@ -387,10 +387,12 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>[{"hero":{"id":"4"}}]</t>
-  </si>
-  <si>
-    <t>[{"hero":{"id":"5"}}]</t>
+    <t>[{"effect":{"id":"2"}}]</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>[{"foot":{"id":"5"}}]</t>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -948,7 +950,7 @@
       <pane xSplit="1" ySplit="4" topLeftCell="G5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="Q7" sqref="Q7"/>
+      <selection pane="bottomRight" activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>

--- a/Resource/excel/商城-商品配置.xlsx
+++ b/Resource/excel/商城-商品配置.xlsx
@@ -230,7 +230,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="52">
   <si>
     <t>*dark_config</t>
   </si>
@@ -373,13 +373,19 @@
     <t>[{"hero":{"id":"3"}}]</t>
   </si>
   <si>
-    <t>[{"money":"100"}]</t>
+    <t>[{"money":"80"}]</t>
   </si>
   <si>
     <t>[{"effect":{"id":"3"}}]</t>
   </si>
   <si>
+    <t>[{"money":"800"}]</t>
+  </si>
+  <si>
     <t>[{"foot":{"id":"3"}}]</t>
+  </si>
+  <si>
+    <t>[{"money":"400"}]</t>
   </si>
 </sst>
 </file>
@@ -387,10 +393,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="27">
     <font>
@@ -424,6 +430,29 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -437,8 +466,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -452,44 +498,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -497,46 +506,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -559,16 +529,52 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -594,13 +600,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -612,67 +642,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -684,61 +672,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -756,13 +690,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -774,7 +768,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -785,36 +791,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -836,17 +812,38 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -872,16 +869,25 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -890,148 +896,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1484,7 +1490,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F26" sqref="F26"/>
+      <selection pane="bottomRight" activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1527,12 +1533,8 @@
       </c>
       <c r="E1" s="5"/>
       <c r="F1" s="5"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
       <c r="I1" s="6"/>
       <c r="J1" s="6"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
       <c r="M1" s="6"/>
       <c r="N1" s="6"/>
     </row>
@@ -1787,10 +1789,10 @@
       <c r="I6" s="4"/>
       <c r="J6" s="4"/>
       <c r="K6" s="4" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="L6" s="4" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="M6" s="4"/>
       <c r="N6" s="4"/>
@@ -1820,15 +1822,15 @@
       <c r="F7" s="4"/>
       <c r="G7" s="4"/>
       <c r="H7" s="4" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I7" s="4"/>
       <c r="J7" s="4"/>
       <c r="K7" s="4" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="L7" s="4" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="M7" s="4"/>
       <c r="N7" s="4"/>

--- a/Resource/excel/商城-商品配置.xlsx
+++ b/Resource/excel/商城-商品配置.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work\FighterServer\Resource\excel\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540" tabRatio="710"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" tabRatio="710"/>
   </bookViews>
   <sheets>
     <sheet name="goods" sheetId="14" r:id="rId1"/>
@@ -23,7 +28,7 @@
     <author>张炯谌</author>
   </authors>
   <commentList>
-    <comment ref="I4" authorId="0">
+    <comment ref="I4" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -45,7 +50,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J4" authorId="0">
+    <comment ref="J4" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -67,7 +72,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K4" authorId="0">
+    <comment ref="K4" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -90,7 +95,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L4" authorId="0">
+    <comment ref="L4" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -113,7 +118,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M4" authorId="0">
+    <comment ref="M4" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -135,7 +140,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N4" authorId="0">
+    <comment ref="N4" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -157,7 +162,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O4" authorId="0">
+    <comment ref="O4" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -180,7 +185,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P4" authorId="1">
+    <comment ref="P4" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -202,7 +207,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="U4" authorId="0">
+    <comment ref="U4" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -230,7 +235,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="55">
   <si>
     <t>*dark_config</t>
   </si>
@@ -387,18 +392,21 @@
   <si>
     <t>[{"money":"400"}]</t>
   </si>
+  <si>
+    <t>[{"item":{"id":"10001"}}]</t>
+  </si>
+  <si>
+    <t>[{"item":{"id":"11002"}}]</t>
+  </si>
+  <si>
+    <t>[{"item":{"id":"12001"}}]</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="27">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -429,157 +437,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -591,201 +448,15 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -793,251 +464,9 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1067,61 +496,13 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
       <font>
-        <b val="1"/>
+        <b/>
       </font>
       <fill>
         <patternFill patternType="solid">
@@ -1143,12 +524,15 @@
   </tableStyles>
   <colors>
     <mruColors>
-      <color rgb="0005FF6F"/>
+      <color rgb="FF05FF6F"/>
     </mruColors>
   </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1477,23 +861,22 @@
       <a:lstStyle/>
     </a:spDef>
   </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:XFD13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
-      <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="L12" sqref="L12"/>
+      <selection pane="bottomRight" activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="10.625" style="4" customWidth="1"/>
     <col min="2" max="2" width="9.5" style="4" customWidth="1"/>
@@ -1518,7 +901,7 @@
     <col min="22" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:14">
+    <row r="1" spans="1:16384" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -1538,7 +921,7 @@
       <c r="M1" s="6"/>
       <c r="N1" s="6"/>
     </row>
-    <row r="2" s="2" customFormat="1" spans="1:21">
+    <row r="2" spans="1:16384" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -1603,7 +986,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" spans="1:21">
+    <row r="3" spans="1:16384" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1">
         <v>3</v>
       </c>
@@ -1668,7 +1051,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" s="2" customFormat="1" spans="1:21">
+    <row r="4" spans="1:16384" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
         <v>25</v>
       </c>
@@ -1733,7 +1116,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="5" s="3" customFormat="1" ht="15" customHeight="1" spans="1:22">
+    <row r="5" spans="1:16384" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="4">
         <v>10001</v>
       </c>
@@ -1771,7 +1154,7 @@
       <c r="U5" s="4"/>
       <c r="V5" s="4"/>
     </row>
-    <row r="6" s="3" customFormat="1" ht="15" customHeight="1" spans="1:22">
+    <row r="6" spans="1:16384" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="4">
         <v>11001</v>
       </c>
@@ -1809,7 +1192,7 @@
       <c r="U6" s="4"/>
       <c r="V6" s="4"/>
     </row>
-    <row r="7" s="3" customFormat="1" spans="1:22">
+    <row r="7" spans="1:16384" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A7" s="4">
         <v>12001</v>
       </c>
@@ -1847,7 +1230,28 @@
       <c r="U7" s="4"/>
       <c r="V7" s="4"/>
     </row>
-    <row r="8" spans="22:16384">
+    <row r="8" spans="1:16384" x14ac:dyDescent="0.15">
+      <c r="A8" s="4">
+        <v>13001</v>
+      </c>
+      <c r="B8" s="4">
+        <v>1</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="K8" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="L8" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q8" s="4">
+        <v>1</v>
+      </c>
+      <c r="R8" s="4">
+        <v>1</v>
+      </c>
       <c r="V8"/>
       <c r="W8"/>
       <c r="X8"/>
@@ -18212,7 +17616,28 @@
       <c r="XFC8"/>
       <c r="XFD8"/>
     </row>
-    <row r="9" spans="22:16384">
+    <row r="9" spans="1:16384" x14ac:dyDescent="0.15">
+      <c r="A9" s="4">
+        <v>13002</v>
+      </c>
+      <c r="B9" s="4">
+        <v>1</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="K9" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="L9" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q9" s="4">
+        <v>1</v>
+      </c>
+      <c r="R9" s="4">
+        <v>1</v>
+      </c>
       <c r="V9"/>
       <c r="W9"/>
       <c r="X9"/>
@@ -34577,7 +34002,28 @@
       <c r="XFC9"/>
       <c r="XFD9"/>
     </row>
-    <row r="10" spans="22:16384">
+    <row r="10" spans="1:16384" x14ac:dyDescent="0.15">
+      <c r="A10" s="4">
+        <v>13003</v>
+      </c>
+      <c r="B10" s="4">
+        <v>1</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="K10" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="L10" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q10" s="4">
+        <v>1</v>
+      </c>
+      <c r="R10" s="4">
+        <v>1</v>
+      </c>
       <c r="V10"/>
       <c r="W10"/>
       <c r="X10"/>
@@ -50942,7 +50388,7 @@
       <c r="XFC10"/>
       <c r="XFD10"/>
     </row>
-    <row r="11" customFormat="1" spans="1:21">
+    <row r="11" spans="1:16384" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
@@ -50965,7 +50411,7 @@
       <c r="T11" s="4"/>
       <c r="U11" s="4"/>
     </row>
-    <row r="12" customFormat="1" spans="1:21">
+    <row r="12" spans="1:16384" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
@@ -50988,7 +50434,7 @@
       <c r="T12" s="4"/>
       <c r="U12" s="4"/>
     </row>
-    <row r="13" customFormat="1" spans="1:21">
+    <row r="13" spans="1:16384" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
@@ -51012,9 +50458,9 @@
       <c r="U13" s="4"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
-  <legacyDrawing r:id="rId2"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Resource/excel/商城-商品配置.xlsx
+++ b/Resource/excel/商城-商品配置.xlsx
@@ -393,20 +393,22 @@
     <t>[{"money":"400"}]</t>
   </si>
   <si>
-    <t>[{"item":{"id":"10001"}}]</t>
+    <t>[{"item":{"id":"12001"}}]</t>
   </si>
   <si>
-    <t>[{"item":{"id":"11002"}}]</t>
+    <t>[{"item":{"id":"10001"}}]</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>[{"item":{"id":"12001"}}]</t>
+    <t>[{"item":{"id":"11002","count":"1"}}]</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -447,6 +449,12 @@
       <name val="宋体"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -470,7 +478,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -493,6 +501,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -873,7 +884,7 @@
       <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D6" sqref="D6"/>
+      <selection pane="bottomRight" activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -1238,7 +1249,7 @@
         <v>1</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K8" s="4" t="s">
         <v>49</v>
@@ -17623,8 +17634,8 @@
       <c r="B9" s="4">
         <v>1</v>
       </c>
-      <c r="H9" s="4" t="s">
-        <v>53</v>
+      <c r="H9" s="8" t="s">
+        <v>54</v>
       </c>
       <c r="K9" s="4" t="s">
         <v>47</v>
@@ -34010,7 +34021,7 @@
         <v>1</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K10" s="4" t="s">
         <v>51</v>
@@ -50460,7 +50471,7 @@
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Resource/excel/商城-商品配置.xlsx
+++ b/Resource/excel/商城-商品配置.xlsx
@@ -393,14 +393,15 @@
     <t>[{"money":"400"}]</t>
   </si>
   <si>
-    <t>[{"item":{"id":"12001"}}]</t>
-  </si>
-  <si>
-    <t>[{"item":{"id":"10001"}}]</t>
+    <t>[{"item":{"id":"11002","count":"1"}}]</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>[{"item":{"id":"11002","count":"1"}}]</t>
+    <t>[{"item":{"id":"10001","count":"1"}}]</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>[{"item":{"id":"12001","count":"1"}}]</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -884,7 +885,7 @@
       <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B5" sqref="B5"/>
+      <selection pane="bottomRight" activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -896,7 +897,7 @@
     <col min="5" max="5" width="15.25" style="4" customWidth="1"/>
     <col min="6" max="6" width="10.875" style="4" customWidth="1"/>
     <col min="7" max="7" width="9.25" style="4" customWidth="1"/>
-    <col min="8" max="8" width="15.75" style="4" customWidth="1"/>
+    <col min="8" max="8" width="56" style="4" customWidth="1"/>
     <col min="9" max="9" width="14.625" style="4" customWidth="1"/>
     <col min="10" max="10" width="13.125" style="4" customWidth="1"/>
     <col min="11" max="12" width="14.125" style="4" customWidth="1"/>
@@ -17635,7 +17636,7 @@
         <v>1</v>
       </c>
       <c r="H9" s="8" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K9" s="4" t="s">
         <v>47</v>
@@ -34021,7 +34022,7 @@
         <v>1</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K10" s="4" t="s">
         <v>51</v>

--- a/Resource/excel/商城-商品配置.xlsx
+++ b/Resource/excel/商城-商品配置.xlsx
@@ -885,7 +885,7 @@
       <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B6" sqref="B6"/>
+      <selection pane="bottomRight" activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>

--- a/Resource/excel/商城-商品配置.xlsx
+++ b/Resource/excel/商城-商品配置.xlsx
@@ -885,7 +885,7 @@
       <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D10" sqref="D10"/>
+      <selection pane="bottomRight" activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
